--- a/src/pages/Question Generator/Notes/practice joins.xlsx
+++ b/src/pages/Question Generator/Notes/practice joins.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ghost files\data analyst prep\sql\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ghost files\data analyst prep\interview_and_practice_algorithm\src\pages\Question Generator\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8FEE92-331D-4C53-A536-D8D5645E9A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71CAE633-A062-430E-B12E-33923ABDA0BB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{2225AD37-30A0-4B51-BF3B-B7B9AC82ACF4}"/>
   </bookViews>
@@ -26,8 +26,8 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="31">
   <si>
     <t>id</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>State</t>
-  </si>
-  <si>
-    <t>country_id</t>
   </si>
   <si>
     <t>population</t>
@@ -254,7 +251,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DD81126C-EC44-41CB-BA06-278C9AB95DFF}" name="country" displayName="country" ref="A2:C6" totalsRowShown="0">
   <autoFilter ref="A2:C6" xr:uid="{DD81126C-EC44-41CB-BA06-278C9AB95DFF}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{E098E95F-0014-402E-B1C4-F8CD40F3DC8F}" name="id" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{E098E95F-0014-402E-B1C4-F8CD40F3DC8F}" name="countryID" dataDxfId="0">
       <calculatedColumnFormula array="1">_xlfn.SEQUENCE(3,1,1,1)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{589104CE-B62B-43E5-AB9E-A6EA8070F803}" name="name"/>
@@ -269,7 +266,7 @@
   <autoFilter ref="A9:D14" xr:uid="{5D7E8206-C713-4E09-9C6E-7B70F61D2288}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{6E2D62F0-7B67-45BC-AD54-460CBDCFB67B}" name="id"/>
-    <tableColumn id="2" xr3:uid="{7FDE8744-3069-4E63-830D-FDA863B37823}" name="country_id"/>
+    <tableColumn id="2" xr3:uid="{7FDE8744-3069-4E63-830D-FDA863B37823}" name="stateCountryID"/>
     <tableColumn id="3" xr3:uid="{8DB1D906-8C28-4F1F-9906-7D029A47DC3E}" name="name"/>
     <tableColumn id="4" xr3:uid="{790410EB-0A3E-4C51-8167-C3FD888B8F28}" name="population"/>
   </tableColumns>
@@ -641,13 +638,13 @@
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.44140625" customWidth="1"/>
@@ -665,7 +662,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -676,37 +673,37 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
         <v>23</v>
       </c>
-      <c r="G2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>24</v>
       </c>
-      <c r="J2" t="s">
-        <v>25</v>
-      </c>
       <c r="K2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
@@ -720,7 +717,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -729,7 +726,7 @@
         <v>3</v>
       </c>
       <c r="H3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -738,7 +735,7 @@
         <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L3">
         <v>2000</v>
@@ -756,7 +753,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -765,7 +762,7 @@
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -774,7 +771,7 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L4">
         <v>1500</v>
@@ -789,11 +786,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
       <c r="F5">
         <v>1</v>
       </c>
@@ -801,7 +798,7 @@
         <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I5">
         <v>4</v>
@@ -810,7 +807,7 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L5">
         <v>400</v>
@@ -825,19 +822,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
       <c r="F6">
         <v>3</v>
       </c>
       <c r="G6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" t="s">
         <v>10</v>
-      </c>
-      <c r="H6" t="s">
-        <v>11</v>
       </c>
       <c r="I6">
         <v>5</v>
@@ -846,7 +843,7 @@
         <v>3</v>
       </c>
       <c r="K6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L6">
         <v>12000</v>
@@ -866,16 +863,16 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
       <c r="F9" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -892,34 +889,34 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10">
         <v>2000</v>
       </c>
       <c r="F10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" t="s">
         <v>23</v>
       </c>
-      <c r="G10" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>24</v>
       </c>
-      <c r="J10" t="s">
-        <v>25</v>
-      </c>
       <c r="K10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
@@ -933,7 +930,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11">
         <v>1500</v>
@@ -945,7 +942,7 @@
         <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -954,7 +951,7 @@
         <v>2</v>
       </c>
       <c r="K11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L11">
         <v>2000</v>
@@ -969,10 +966,10 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
         <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
       </c>
       <c r="D12">
         <v>30000</v>
@@ -984,7 +981,7 @@
         <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I12">
         <v>2</v>
@@ -993,7 +990,7 @@
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L12">
         <v>1500</v>
@@ -1011,7 +1008,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13">
         <v>400</v>
@@ -1023,7 +1020,7 @@
         <v>2</v>
       </c>
       <c r="H13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I13">
         <v>4</v>
@@ -1032,7 +1029,7 @@
         <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L13">
         <v>400</v>
@@ -1050,7 +1047,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14">
         <v>12000</v>
@@ -1059,10 +1056,10 @@
         <v>3</v>
       </c>
       <c r="G14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" t="s">
         <v>10</v>
-      </c>
-      <c r="H14" t="s">
-        <v>11</v>
       </c>
       <c r="I14">
         <v>5</v>
@@ -1071,7 +1068,7 @@
         <v>3</v>
       </c>
       <c r="K14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L14">
         <v>12000</v>
@@ -1086,27 +1083,27 @@
         <v>4</v>
       </c>
       <c r="G15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" t="s">
         <v>18</v>
       </c>
-      <c r="H15" t="s">
-        <v>19</v>
-      </c>
       <c r="I15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F18" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -1117,28 +1114,28 @@
     </row>
     <row r="19" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" t="s">
         <v>23</v>
       </c>
-      <c r="G19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H19" t="s">
-        <v>8</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>24</v>
       </c>
-      <c r="J19" t="s">
-        <v>25</v>
-      </c>
       <c r="K19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
@@ -1152,7 +1149,7 @@
         <v>3</v>
       </c>
       <c r="H20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -1161,7 +1158,7 @@
         <v>2</v>
       </c>
       <c r="K20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L20">
         <v>2000</v>
@@ -1179,7 +1176,7 @@
         <v>2</v>
       </c>
       <c r="H21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I21">
         <v>2</v>
@@ -1188,7 +1185,7 @@
         <v>1</v>
       </c>
       <c r="K21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L21">
         <v>1500</v>
@@ -1200,22 +1197,22 @@
     </row>
     <row r="22" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22">
+        <v>3</v>
+      </c>
+      <c r="J22" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" t="s">
         <v>12</v>
-      </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" t="s">
-        <v>12</v>
-      </c>
-      <c r="I22">
-        <v>3</v>
-      </c>
-      <c r="J22" t="s">
-        <v>12</v>
-      </c>
-      <c r="K22" t="s">
-        <v>13</v>
       </c>
       <c r="L22">
         <v>30000</v>
@@ -1233,7 +1230,7 @@
         <v>2</v>
       </c>
       <c r="H23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I23">
         <v>4</v>
@@ -1242,7 +1239,7 @@
         <v>1</v>
       </c>
       <c r="K23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L23">
         <v>400</v>
@@ -1257,10 +1254,10 @@
         <v>3</v>
       </c>
       <c r="G24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24" t="s">
         <v>10</v>
-      </c>
-      <c r="H24" t="s">
-        <v>11</v>
       </c>
       <c r="I24">
         <v>5</v>
@@ -1269,7 +1266,7 @@
         <v>3</v>
       </c>
       <c r="K24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L24">
         <v>12000</v>
@@ -1277,7 +1274,7 @@
     </row>
     <row r="27" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F27" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -1288,25 +1285,25 @@
     </row>
     <row r="28" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F28" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>7</v>
+      </c>
+      <c r="I28" t="s">
         <v>23</v>
       </c>
-      <c r="G28" t="s">
-        <v>1</v>
-      </c>
-      <c r="H28" t="s">
-        <v>8</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>24</v>
       </c>
-      <c r="J28" t="s">
-        <v>25</v>
-      </c>
       <c r="K28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="6:17" x14ac:dyDescent="0.3">
@@ -1317,7 +1314,7 @@
         <v>3</v>
       </c>
       <c r="H29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -1326,13 +1323,13 @@
         <v>2</v>
       </c>
       <c r="K29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L29">
         <v>2000</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
@@ -1346,7 +1343,7 @@
         <v>2</v>
       </c>
       <c r="H30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I30">
         <v>2</v>
@@ -1355,7 +1352,7 @@
         <v>1</v>
       </c>
       <c r="K30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L30">
         <v>1500</v>
@@ -1373,7 +1370,7 @@
         <v>2</v>
       </c>
       <c r="H31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I31">
         <v>4</v>
@@ -1382,7 +1379,7 @@
         <v>1</v>
       </c>
       <c r="K31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L31">
         <v>400</v>
@@ -1397,10 +1394,10 @@
         <v>3</v>
       </c>
       <c r="G32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" t="s">
         <v>10</v>
-      </c>
-      <c r="H32" t="s">
-        <v>11</v>
       </c>
       <c r="I32">
         <v>5</v>
@@ -1409,7 +1406,7 @@
         <v>3</v>
       </c>
       <c r="K32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L32">
         <v>12000</v>
@@ -1424,22 +1421,22 @@
         <v>4</v>
       </c>
       <c r="G33" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" t="s">
         <v>18</v>
       </c>
-      <c r="H33" t="s">
-        <v>19</v>
-      </c>
       <c r="I33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
@@ -1448,22 +1445,22 @@
     </row>
     <row r="34" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F34" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" t="s">
+        <v>11</v>
+      </c>
+      <c r="I34">
+        <v>3</v>
+      </c>
+      <c r="J34" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" t="s">
         <v>12</v>
-      </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
-      <c r="H34" t="s">
-        <v>12</v>
-      </c>
-      <c r="I34">
-        <v>3</v>
-      </c>
-      <c r="J34" t="s">
-        <v>12</v>
-      </c>
-      <c r="K34" t="s">
-        <v>13</v>
       </c>
       <c r="L34">
         <v>30000</v>
